--- a/NBAProjections.xlsx
+++ b/NBAProjections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varshantdhar/Desktop/NBA Projections 2014-17 Drafts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/varshantdhar/Desktop/Git/NBA-Projections/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="85">
   <si>
     <t>FG</t>
   </si>
@@ -335,12 +335,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +373,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11882,8 +11889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:W46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13004,7 +13011,7 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="8"/>
@@ -13033,7 +13040,7 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="8"/>
@@ -13062,7 +13069,7 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="8"/>
@@ -13091,7 +13098,7 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="8"/>
@@ -13120,7 +13127,7 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="8"/>
@@ -13149,7 +13156,7 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="8"/>
@@ -13178,7 +13185,7 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="8"/>
@@ -13207,7 +13214,7 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="8"/>
@@ -13236,7 +13243,7 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="8"/>
@@ -13265,7 +13272,7 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="8"/>
@@ -13294,8 +13301,8 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>47</v>
+      <c r="A26" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -13323,8 +13330,8 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>48</v>
+      <c r="A27" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -13352,8 +13359,8 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>49</v>
+      <c r="A28" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -13381,8 +13388,8 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>50</v>
+      <c r="A29" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -13410,8 +13417,8 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>51</v>
+      <c r="A30" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -13439,8 +13446,8 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>52</v>
+      <c r="A31" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -13468,8 +13475,8 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>53</v>
+      <c r="A32" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -13497,8 +13504,8 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>54</v>
+      <c r="A33" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -13526,8 +13533,8 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>55</v>
+      <c r="A34" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -13555,8 +13562,8 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>56</v>
+      <c r="A35" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -13584,8 +13591,8 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>57</v>
+      <c r="A36" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -13613,8 +13620,8 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>58</v>
+      <c r="A37" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -13642,8 +13649,8 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>59</v>
+      <c r="A38" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -13671,8 +13678,8 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>60</v>
+      <c r="A39" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -13700,8 +13707,8 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>61</v>
+      <c r="A40" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -13729,8 +13736,8 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>62</v>
+      <c r="A41" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -13758,8 +13765,8 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>63</v>
+      <c r="A42" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -13787,8 +13794,8 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>64</v>
+      <c r="A43" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -13817,36 +13824,80 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="B44" s="6">
+        <v>5.8354838709677397</v>
+      </c>
+      <c r="C44" s="6">
+        <v>11.4838709677419</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.50814606741572999</v>
+      </c>
+      <c r="E44" s="6">
+        <v>3.8709677419354799E-2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.16451612903225801</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.23529411764705799</v>
+      </c>
+      <c r="H44" s="6">
+        <v>5.7870967741935404</v>
+      </c>
+      <c r="I44" s="6">
+        <v>11.2451612903225</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.51462994836488796</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.50983146067415697</v>
+      </c>
+      <c r="L44" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="M44" s="6">
+        <v>6.4419354838709602</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0.698547821732598</v>
+      </c>
+      <c r="O44" s="6">
+        <v>2.8806451612903201</v>
+      </c>
+      <c r="P44" s="6">
+        <v>5.8096774193548297</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>8.6903225806451605</v>
+      </c>
+      <c r="R44" s="6">
+        <v>1.47419354838709</v>
+      </c>
+      <c r="S44" s="6">
+        <v>0.77419354838709598</v>
+      </c>
+      <c r="T44" s="6">
+        <v>2.1677419354838698</v>
+      </c>
+      <c r="U44" s="6">
+        <v>2.3935483870967702</v>
+      </c>
+      <c r="V44" s="6">
+        <v>3.4645161290322499</v>
+      </c>
+      <c r="W44" s="6">
+        <v>16.190322580645098</v>
+      </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>71</v>
+      <c r="A45" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -13874,81 +13925,15 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="6">
-        <v>5.8354838709677397</v>
-      </c>
-      <c r="C46" s="6">
-        <v>11.4838709677419</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.50814606741572999</v>
-      </c>
-      <c r="E46" s="6">
-        <v>3.8709677419354799E-2</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.16451612903225801</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.23529411764705799</v>
-      </c>
-      <c r="H46" s="6">
-        <v>5.7870967741935404</v>
-      </c>
-      <c r="I46" s="6">
-        <v>11.2451612903225</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0.51462994836488796</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0.50983146067415697</v>
-      </c>
-      <c r="L46" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="M46" s="6">
-        <v>6.4419354838709602</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0.698547821732598</v>
-      </c>
-      <c r="O46" s="6">
-        <v>2.8806451612903201</v>
-      </c>
-      <c r="P46" s="6">
-        <v>5.8096774193548297</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>8.6903225806451605</v>
-      </c>
-      <c r="R46" s="6">
-        <v>1.47419354838709</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0.77419354838709598</v>
-      </c>
-      <c r="T46" s="6">
-        <v>2.1677419354838698</v>
-      </c>
-      <c r="U46" s="6">
-        <v>2.3935483870967702</v>
-      </c>
-      <c r="V46" s="6">
-        <v>3.4645161290322499</v>
-      </c>
-      <c r="W46" s="6">
-        <v>16.190322580645098</v>
+      <c r="A46" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -13977,7 +13962,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -14006,7 +13991,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -14035,7 +14020,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -14064,7 +14049,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -14093,7 +14078,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -14122,7 +14107,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -14151,7 +14136,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -14180,7 +14165,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -14209,7 +14194,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -14238,7 +14223,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -14267,7 +14252,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -14296,7 +14281,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -14324,8 +14309,8 @@
       <c r="Y59" s="4"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>81</v>
+      <c r="A60" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -14353,8 +14338,8 @@
       <c r="Y60" s="4"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>82</v>
+      <c r="A61" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -14382,9 +14367,7 @@
       <c r="Y61" s="4"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14411,9 +14394,7 @@
       <c r="Y62" s="4"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -17410,7 +17391,6 @@
       <c r="Y173" s="4"/>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -17437,7 +17417,6 @@
       <c r="Y174" s="4"/>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>

--- a/NBAProjections.xlsx
+++ b/NBAProjections.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="460" windowWidth="22740" windowHeight="16100" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="22740" windowHeight="16100" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017-18" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,6 +374,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:W46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6272,7 +6273,7 @@
   <dimension ref="A1:Y175"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:W46"/>
+      <selection activeCell="B16" sqref="B16:W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11889,8 +11890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A60" sqref="A16:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13932,7 +13933,7 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="8"/>
@@ -13961,7 +13962,7 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="8"/>
@@ -13990,7 +13991,7 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B49" s="8"/>
@@ -14019,7 +14020,7 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="8"/>
@@ -14048,7 +14049,7 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="8"/>
@@ -14077,7 +14078,7 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="8"/>
@@ -14106,7 +14107,7 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="8"/>
@@ -14135,7 +14136,7 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="8"/>
@@ -14164,7 +14165,7 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B55" s="8"/>
@@ -14193,7 +14194,7 @@
       <c r="Y55" s="4"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B56" s="8"/>
@@ -14222,7 +14223,7 @@
       <c r="Y56" s="4"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="8"/>
@@ -14251,7 +14252,7 @@
       <c r="Y57" s="4"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B58" s="8"/>
@@ -14280,7 +14281,7 @@
       <c r="Y58" s="4"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="8"/>
@@ -14309,7 +14310,7 @@
       <c r="Y59" s="4"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="8"/>
